--- a/media/ponto_modelo.xlsx
+++ b/media/ponto_modelo.xlsx
@@ -20,10 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">ALMIR DE MORISSON &amp; CIA LTDA. 
-AMJ MEDICAL SOLUTIONS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">MEDICAL SOLUTIONS</t>
   </si>
   <si>
     <r>
@@ -49,10 +48,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">AMJ MEDICAL SOLUTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNPJ. 07.787.208/0001-41</t>
+    <t xml:space="preserve">CNPJ. </t>
   </si>
   <si>
     <t xml:space="preserve">FOLHA DE PONTO INDIVIDUAL DE TRABALHO</t>
@@ -122,8 +118,8 @@
     <t xml:space="preserve">Saída</t>
   </si>
   <si>
-    <t xml:space="preserve">AMJ Medical Solutions
-© 2014 - Desenvolvido por Miriti Tecnologia</t>
+    <t xml:space="preserve">Medical Solutions
+© 2023 - Desenvolvido por Tecnologia</t>
   </si>
   <si>
     <t xml:space="preserve">Página 1 de 1</t>
@@ -460,57 +456,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>639000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="68400" y="23040"/>
-          <a:ext cx="1101600" cy="977760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H61" activeCellId="0" sqref="H61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -543,14 +497,14 @@
     </row>
     <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -558,7 +512,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -582,7 +536,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -606,7 +560,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -614,13 +568,13 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -633,12 +587,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -646,7 +600,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -659,7 +613,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -667,10 +621,10 @@
     <row r="12" customFormat="false" ht="5.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>15</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -678,29 +632,29 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="D14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="F14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -1136,7 +1090,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
@@ -1156,7 +1110,7 @@
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
       <c r="H55" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I55" s="27"/>
     </row>
@@ -1174,29 +1128,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="0"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-    </row>
+    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="58">
     <mergeCell ref="A1:B2"/>
@@ -1265,6 +1197,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>